--- a/Data/DW/df_disease_matches.xlsx
+++ b/Data/DW/df_disease_matches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Matching Category IDs</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Matching Categories</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +479,11 @@
           <t>[30]</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['Elevated temperature or fever']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -494,6 +504,11 @@
           <t>[55, 31]</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['Stress', 'Fatigue or exhaustion']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,6 +529,11 @@
           <t>[36]</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['Nausea or vomiting']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +554,11 @@
           <t>[34]</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['Lack of energy']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +579,11 @@
           <t>[54]</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Mood swings']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -574,6 +604,11 @@
           <t>[29]</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['Dry, painful or itchy skin or rash']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +629,11 @@
           <t>[41]</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['Weight loss']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -614,6 +654,11 @@
           <t>[50]</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['Fear or anxiety']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -634,6 +679,11 @@
           <t>[49]</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['Difficulty in concentrating']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -654,6 +704,11 @@
           <t>[32, 33, 26]</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['Headache', 'Joint pain or inflammation', 'Cramps']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,6 +729,11 @@
           <t>[27]</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['Diarrhoea']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -694,6 +754,11 @@
           <t>[35]</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['Loss of appetite']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -714,6 +779,11 @@
           <t>[116]</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['Insomnia']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -734,6 +804,11 @@
           <t>[102]</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['Fatigue']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -754,6 +829,11 @@
           <t>[99]</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Chest pain']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -774,6 +854,11 @@
           <t>[108]</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Muscle pain and weakness']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -794,6 +879,11 @@
           <t>[98]</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Breathing difficulties']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -814,6 +904,11 @@
           <t>[115]</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['Fear/anxiety']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -834,6 +929,11 @@
           <t>[104, 103]</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['Joint pain', 'Headache']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -854,6 +954,11 @@
           <t>[153]</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Insomnia']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -874,6 +979,11 @@
           <t>[155, 141]</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['Stress', 'Fatigue or exhaustion']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -892,6 +1002,11 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>[150]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['Fear or anxiety']</t>
         </is>
       </c>
     </row>
